--- a/100runs/run060/NotionalETEOutput060.xlsx
+++ b/100runs/run060/NotionalETEOutput060.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,13 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_103.MISSILE_HELLMASKER_103</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_SOMERSAULT_21.MISSILE_SOMERSAULT_21</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_108.MISSILE_BRAVER_108</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_175.MISSILE_BRAVER_175</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>182.6997172837659</v>
+        <v>1116577.324791296</v>
       </c>
       <c r="G2">
-        <v>-81.96813080428291</v>
+        <v>4841125.880784688</v>
       </c>
       <c r="H2">
-        <v>605.4195231445522</v>
+        <v>3985236.765080317</v>
       </c>
       <c r="I2">
-        <v>-1120.953075143239</v>
+        <v>1114861.030107503</v>
       </c>
       <c r="J2">
-        <v>2094.978879679269</v>
+        <v>4843219.794580706</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.303685137</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>182.6997172837659</v>
+        <v>1116577.324791296</v>
       </c>
       <c r="G3">
-        <v>-81.96813080428291</v>
+        <v>4841125.880784688</v>
       </c>
       <c r="H3">
-        <v>605.4195231445522</v>
+        <v>3985236.765080317</v>
       </c>
       <c r="I3">
-        <v>-1098.822476636328</v>
+        <v>1114890.644095272</v>
       </c>
       <c r="J3">
-        <v>2044.016854771372</v>
+        <v>4843171.143027429</v>
       </c>
       <c r="K3">
-        <v>282.6104538918017</v>
+        <v>3984674.09967578</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>182.6997172837659</v>
+        <v>1116577.324791296</v>
       </c>
       <c r="G4">
-        <v>-81.96813080428291</v>
+        <v>4841125.880784688</v>
       </c>
       <c r="H4">
-        <v>605.4195231445522</v>
+        <v>3985236.765080317</v>
       </c>
       <c r="I4">
-        <v>-1076.146932500962</v>
+        <v>1114920.987300246</v>
       </c>
       <c r="J4">
-        <v>1993.054829863475</v>
+        <v>4843122.491474151</v>
       </c>
       <c r="K4">
-        <v>551.1286551127437</v>
+        <v>3984962.747005778</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>182.6997172837659</v>
+        <v>1116577.324791296</v>
       </c>
       <c r="G5">
-        <v>-81.96813080428291</v>
+        <v>4841125.880784688</v>
       </c>
       <c r="H5">
-        <v>605.4195231445522</v>
+        <v>3985236.765080317</v>
       </c>
       <c r="I5">
-        <v>-1052.913023952381</v>
+        <v>1114952.077678727</v>
       </c>
       <c r="J5">
-        <v>1942.092804955578</v>
+        <v>4843073.839920874</v>
       </c>
       <c r="K5">
-        <v>805.5546036628278</v>
+        <v>3985236.245675133</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>182.6997172837659</v>
+        <v>1116577.324791296</v>
       </c>
       <c r="G6">
-        <v>-81.96813080428291</v>
+        <v>4841125.880784688</v>
       </c>
       <c r="H6">
-        <v>605.4195231445522</v>
+        <v>3985236.765080317</v>
       </c>
       <c r="I6">
-        <v>-1029.107001780594</v>
+        <v>1114983.933629175</v>
       </c>
       <c r="J6">
-        <v>1891.130780047682</v>
+        <v>4843025.188367597</v>
       </c>
       <c r="K6">
-        <v>1045.888299542053</v>
+        <v>3985494.595683843</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>182.6997172837659</v>
+        <v>1116577.324791296</v>
       </c>
       <c r="G7">
-        <v>-81.96813080428291</v>
+        <v>4841125.880784688</v>
       </c>
       <c r="H7">
-        <v>605.4195231445522</v>
+        <v>3985236.765080317</v>
       </c>
       <c r="I7">
-        <v>-1004.714778213966</v>
+        <v>1115016.574003097</v>
       </c>
       <c r="J7">
-        <v>1840.168755139785</v>
+        <v>4842976.536814319</v>
       </c>
       <c r="K7">
-        <v>1272.12974275042</v>
+        <v>3985737.797031909</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>182.6997172837659</v>
+        <v>1116577.324791296</v>
       </c>
       <c r="G8">
-        <v>-81.96813080428291</v>
+        <v>4841125.880784688</v>
       </c>
       <c r="H8">
-        <v>605.4195231445522</v>
+        <v>3985236.765080317</v>
       </c>
       <c r="I8">
-        <v>-979.7219185824442</v>
+        <v>1115050.018116197</v>
       </c>
       <c r="J8">
-        <v>1789.206730231888</v>
+        <v>4842927.885261041</v>
       </c>
       <c r="K8">
-        <v>1484.278933287928</v>
+        <v>3985965.84971933</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>182.6997172837659</v>
+        <v>1116577.324791296</v>
       </c>
       <c r="G9">
-        <v>-81.96813080428291</v>
+        <v>4841125.880784688</v>
       </c>
       <c r="H9">
-        <v>605.4195231445522</v>
+        <v>3985236.765080317</v>
       </c>
       <c r="I9">
-        <v>-954.1136327755054</v>
+        <v>1115084.285759815</v>
       </c>
       <c r="J9">
-        <v>1738.244705323991</v>
+        <v>4842879.233707764</v>
       </c>
       <c r="K9">
-        <v>1682.335871154577</v>
+        <v>3986178.753746108</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>182.6997172837659</v>
+        <v>1116577.324791296</v>
       </c>
       <c r="G10">
-        <v>-68.4328851574065</v>
+        <v>4841142.393608392</v>
       </c>
       <c r="H10">
-        <v>605.4195231445522</v>
+        <v>3985236.765080317</v>
       </c>
       <c r="I10">
-        <v>-927.8747664897618</v>
+        <v>1115119.397212631</v>
       </c>
       <c r="J10">
-        <v>1687.282680416095</v>
+        <v>4842830.582154487</v>
       </c>
       <c r="K10">
-        <v>1866.300556350368</v>
+        <v>3986376.50911224</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>141.7962937142179</v>
+        <v>1116528.644278931</v>
       </c>
       <c r="G11">
-        <v>-54.89763951053011</v>
+        <v>4841158.906432096</v>
       </c>
       <c r="H11">
-        <v>745.8727786123249</v>
+        <v>3985436.019908913</v>
       </c>
       <c r="I11">
-        <v>-900.9897922610457</v>
+        <v>1115155.373252671</v>
       </c>
       <c r="J11">
-        <v>1636.320655508198</v>
+        <v>4842781.930601209</v>
       </c>
       <c r="K11">
-        <v>2036.172988875299</v>
+        <v>3986559.115817729</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>117.7675843043375</v>
+        <v>1116500.046919994</v>
       </c>
       <c r="G12">
-        <v>-41.36239386365371</v>
+        <v>4841175.419255801</v>
       </c>
       <c r="H12">
-        <v>829.5339206211137</v>
+        <v>3985554.706275104</v>
       </c>
       <c r="I12">
-        <v>-873.4428002756706</v>
+        <v>1115192.235169599</v>
       </c>
       <c r="J12">
-        <v>1585.358630600301</v>
+        <v>4842733.279047932</v>
       </c>
       <c r="K12">
-        <v>2191.953168729373</v>
+        <v>3986726.573862574</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>102.5989000895077</v>
+        <v>1116481.994169025</v>
       </c>
       <c r="G13">
-        <v>-27.82714821677731</v>
+        <v>4841191.932079505</v>
       </c>
       <c r="H13">
-        <v>889.3208843743716</v>
+        <v>3985639.523399315</v>
       </c>
       <c r="I13">
-        <v>-845.2174889554231</v>
+        <v>1115230.004777319</v>
       </c>
       <c r="J13">
-        <v>1534.396605692404</v>
+        <v>4842684.627494655</v>
       </c>
       <c r="K13">
-        <v>2333.641095912588</v>
+        <v>3986878.883246774</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>92.02032129138942</v>
+        <v>1116469.40425378</v>
       </c>
       <c r="G14">
-        <v>-14.2919025699009</v>
+        <v>4841208.444903209</v>
       </c>
       <c r="H14">
-        <v>935.8769610181444</v>
+        <v>3985705.570448498</v>
       </c>
       <c r="I14">
-        <v>-816.297155310725</v>
+        <v>1115268.704426882</v>
       </c>
       <c r="J14">
-        <v>1483.434580784507</v>
+        <v>4842635.975941378</v>
       </c>
       <c r="K14">
-        <v>2461.236770424944</v>
+        <v>3987016.04397033</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>84.12838471570328</v>
+        <v>1116460.011799982</v>
       </c>
       <c r="G15">
-        <v>-0.7566569230245072</v>
+        <v>4841224.957726914</v>
       </c>
       <c r="H15">
-        <v>974.0099990078672</v>
+        <v>3985759.668104855</v>
       </c>
       <c r="I15">
-        <v>-786.6646850562454</v>
+        <v>1115308.357019713</v>
       </c>
       <c r="J15">
-        <v>1432.472555876611</v>
+        <v>4842587.324388101</v>
       </c>
       <c r="K15">
-        <v>2574.740192266441</v>
+        <v>3987138.056033241</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>77.95799238978644</v>
+        <v>1116452.668212729</v>
       </c>
       <c r="G16">
-        <v>12.7785887238519</v>
+        <v>4841241.470550617</v>
       </c>
       <c r="H16">
-        <v>1006.305898608303</v>
+        <v>3985805.484870852</v>
       </c>
       <c r="I16">
-        <v>-756.302542483122</v>
+        <v>1115348.986021162</v>
       </c>
       <c r="J16">
-        <v>1381.510530968714</v>
+        <v>4842538.672834822</v>
       </c>
       <c r="K16">
-        <v>2674.15136143708</v>
+        <v>3987244.919435509</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>72.96569571712256</v>
+        <v>1116446.726715937</v>
       </c>
       <c r="G17">
-        <v>26.3138343707283</v>
+        <v>4841257.983374323</v>
       </c>
       <c r="H17">
-        <v>1034.316709551778</v>
+        <v>3985845.222570877</v>
       </c>
       <c r="I17">
-        <v>-725.1927600817942</v>
+        <v>1115390.615474394</v>
       </c>
       <c r="J17">
-        <v>1330.548506060817</v>
+        <v>4842490.021281545</v>
       </c>
       <c r="K17">
-        <v>2759.47027793686</v>
+        <v>3987336.634177131</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>68.82031062385359</v>
+        <v>1116441.793156526</v>
       </c>
       <c r="G18">
-        <v>39.8490800176047</v>
+        <v>4841274.496198027</v>
       </c>
       <c r="H18">
-        <v>1059.047483841527</v>
+        <v>3985880.307027807</v>
       </c>
       <c r="I18">
-        <v>-693.316927909309</v>
+        <v>1115433.270014613</v>
       </c>
       <c r="J18">
-        <v>1279.586481152921</v>
+        <v>4842441.369728268</v>
       </c>
       <c r="K18">
-        <v>2830.696941765782</v>
+        <v>3987413.20025811</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>65.30740865878245</v>
+        <v>1116437.61233613</v>
       </c>
       <c r="G19">
-        <v>53.38432566448111</v>
+        <v>4841291.009021731</v>
       </c>
       <c r="H19">
-        <v>1081.186503376833</v>
+        <v>3985911.714676765</v>
       </c>
       <c r="I19">
-        <v>-660.6561826948039</v>
+        <v>1115476.974883644</v>
       </c>
       <c r="J19">
-        <v>1228.624456245024</v>
+        <v>4842392.718174991</v>
       </c>
       <c r="K19">
-        <v>2887.831352923845</v>
+        <v>3987474.617678444</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>62.28138633587612</v>
+        <v>1116434.01096724</v>
       </c>
       <c r="G20">
-        <v>66.9195713113575</v>
+        <v>4841307.521845436</v>
       </c>
       <c r="H20">
-        <v>1101.225832231126</v>
+        <v>3985940.143587314</v>
       </c>
       <c r="I20">
-        <v>-627.1911966767262</v>
+        <v>1115521.755944867</v>
       </c>
       <c r="J20">
-        <v>1177.662431337127</v>
+        <v>4842344.066621712</v>
       </c>
       <c r="K20">
-        <v>2930.873511411049</v>
+        <v>3987520.886438135</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>59.63951248815717</v>
+        <v>1116430.866786111</v>
       </c>
       <c r="G21">
-        <v>80.45481695823389</v>
+        <v>4841324.03466914</v>
       </c>
       <c r="H21">
-        <v>1119.529471005886</v>
+        <v>3985966.110151027</v>
       </c>
       <c r="I21">
-        <v>-592.9021661651763</v>
+        <v>1115567.639698525</v>
       </c>
       <c r="J21">
-        <v>1126.70040642923</v>
+        <v>4842295.415068435</v>
       </c>
       <c r="K21">
-        <v>2959.823417227394</v>
+        <v>3987552.00653718</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>57.30698757629386</v>
+        <v>1116428.090771345</v>
       </c>
       <c r="G22">
-        <v>93.99006260511031</v>
+        <v>4841340.547492844</v>
       </c>
       <c r="H22">
-        <v>1136.374270218744</v>
+        <v>3985990.007123502</v>
       </c>
       <c r="I22">
-        <v>-557.7687998226088</v>
+        <v>1115614.653297404</v>
       </c>
       <c r="J22">
-        <v>1075.738381521334</v>
+        <v>4842246.763515159</v>
       </c>
       <c r="K22">
-        <v>2974.681070372881</v>
+        <v>3987567.977975582</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>55.22789867161162</v>
+        <v>1116425.616379123</v>
       </c>
       <c r="G23">
-        <v>107.5253082519867</v>
+        <v>4841357.060316549</v>
       </c>
       <c r="H23">
-        <v>1151.975706690688</v>
+        <v>3986012.140192185</v>
       </c>
       <c r="I23">
-        <v>-521.77030665596</v>
+        <v>1115662.824562904</v>
       </c>
       <c r="J23">
-        <v>1024.776356613437</v>
+        <v>4842198.111961882</v>
       </c>
       <c r="K23">
-        <v>2975.446470847509</v>
+        <v>3987568.800753339</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>53.35950894232442</v>
+        <v>1116423.392746933</v>
       </c>
       <c r="G24">
-        <v>121.0605538988631</v>
+        <v>4841373.573140253</v>
       </c>
       <c r="H24">
-        <v>1166.504782754301</v>
+        <v>3986032.751950532</v>
       </c>
       <c r="I24">
-        <v>-484.885383713089</v>
+        <v>1115712.1820015</v>
       </c>
       <c r="J24">
-        <v>973.81433170554</v>
+        <v>4842149.460408603</v>
       </c>
       <c r="K24">
-        <v>2962.119618651278</v>
+        <v>3987554.474870452</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>51.66852200519703</v>
+        <v>1116421.380247653</v>
       </c>
       <c r="G25">
-        <v>134.5957995457395</v>
+        <v>4841390.085963957</v>
       </c>
       <c r="H25">
-        <v>1180.099481719491</v>
+        <v>3986052.038149368</v>
       </c>
       <c r="I25">
-        <v>-447.0922034762564</v>
+        <v>1115762.754821614</v>
       </c>
       <c r="J25">
-        <v>922.8523067976433</v>
+        <v>4842100.808855326</v>
       </c>
       <c r="K25">
-        <v>2934.70051378419</v>
+        <v>3987525.000326921</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>50.12856265533795</v>
+        <v>1116419.547491281</v>
       </c>
       <c r="G26">
-        <v>148.1310451926159</v>
+        <v>4841406.598787662</v>
       </c>
       <c r="H26">
-        <v>1192.87275713798</v>
+        <v>3986070.159030907</v>
       </c>
       <c r="I26">
-        <v>-408.3684009451802</v>
+        <v>1115814.572950897</v>
       </c>
       <c r="J26">
-        <v>871.8902818897465</v>
+        <v>4842052.157302049</v>
       </c>
       <c r="K26">
-        <v>2893.189156246242</v>
+        <v>3987480.377122745</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>48.71843251388046</v>
+        <v>1116417.869248929</v>
       </c>
       <c r="G27">
-        <v>161.6662908394923</v>
+        <v>4841423.111611365</v>
       </c>
       <c r="H27">
-        <v>1204.91824293398</v>
+        <v>3986087.247429461</v>
       </c>
       <c r="I27">
-        <v>-368.6910604020214</v>
+        <v>1115867.667053941</v>
       </c>
       <c r="J27">
-        <v>820.9282569818496</v>
+        <v>4842003.505748771</v>
       </c>
       <c r="K27">
-        <v>2837.585546037436</v>
+        <v>3987420.605257925</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>47.42087405712559</v>
+        <v>1116416.324981848</v>
       </c>
       <c r="G28">
-        <v>175.2015364863687</v>
+        <v>4841439.62443507</v>
       </c>
       <c r="H28">
-        <v>1216.314422680945</v>
+        <v>3986103.414686208</v>
       </c>
       <c r="I28">
-        <v>-328.0367018504715</v>
+        <v>1115922.068550428</v>
       </c>
       <c r="J28">
-        <v>769.9662320739531</v>
+        <v>4841954.854195493</v>
       </c>
       <c r="K28">
-        <v>2767.88968315777</v>
+        <v>3987345.684732461</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>46.22167686992326</v>
+        <v>1116414.897777756</v>
       </c>
       <c r="G29">
-        <v>188.7367821332451</v>
+        <v>4841456.137258775</v>
       </c>
       <c r="H29">
-        <v>1227.127731529186</v>
+        <v>3986118.755049761</v>
       </c>
       <c r="I29">
-        <v>-286.3812671209133</v>
+        <v>1115977.809633716</v>
       </c>
       <c r="J29">
-        <v>719.0042071660562</v>
+        <v>4841906.202642216</v>
       </c>
       <c r="K29">
-        <v>2684.101567607247</v>
+        <v>3987255.615546353</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>45.10901958212743</v>
+        <v>1116413.57356765</v>
       </c>
       <c r="G30">
-        <v>202.2720277801215</v>
+        <v>4841472.650082478</v>
       </c>
       <c r="H30">
-        <v>1237.414902768954</v>
+        <v>3986133.349005133</v>
       </c>
       <c r="I30">
-        <v>-243.7001056334371</v>
+        <v>1116034.9232899</v>
       </c>
       <c r="J30">
-        <v>668.0421822581593</v>
+        <v>4841857.551088939</v>
       </c>
       <c r="K30">
-        <v>2586.221199385864</v>
+        <v>3987150.3976996</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>44.07297744425571</v>
+        <v>1116412.340539759</v>
       </c>
       <c r="G31">
-        <v>215.8072734269979</v>
+        <v>4841489.162906183</v>
       </c>
       <c r="H31">
-        <v>1247.224769546316</v>
+        <v>3986147.26582975</v>
       </c>
       <c r="I31">
-        <v>-199.9679598102805</v>
+        <v>1116093.443317324</v>
       </c>
       <c r="J31">
-        <v>617.0801573502627</v>
+        <v>4841808.899535662</v>
       </c>
       <c r="K31">
-        <v>2474.248578493623</v>
+        <v>3987030.031192203</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>43.10514845354797</v>
+        <v>1116411.188694582</v>
       </c>
       <c r="G32">
-        <v>229.3425190738743</v>
+        <v>4841505.675729888</v>
       </c>
       <c r="H32">
-        <v>1256.599666827968</v>
+        <v>3986160.565582361</v>
       </c>
       <c r="I32">
-        <v>-155.1589501290651</v>
+        <v>1116153.404346586</v>
       </c>
       <c r="J32">
-        <v>566.1181324423659</v>
+        <v>4841760.247982384</v>
       </c>
       <c r="K32">
-        <v>2348.183704930523</v>
+        <v>3986894.516024162</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>42.19836573232589</v>
+        <v>1116410.109502583</v>
       </c>
       <c r="G33">
-        <v>242.8777647207507</v>
+        <v>4841522.188553591</v>
       </c>
       <c r="H33">
-        <v>1265.57653554052</v>
+        <v>3986173.300669423</v>
       </c>
       <c r="I33">
-        <v>-109.2465598079825</v>
+        <v>1116214.841861031</v>
       </c>
       <c r="J33">
-        <v>515.1561075344692</v>
+        <v>4841711.596429107</v>
       </c>
       <c r="K33">
-        <v>2208.026578696566</v>
+        <v>3986743.852195476</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>41.34647360029236</v>
+        <v>1116409.095637682</v>
       </c>
       <c r="G34">
-        <v>256.4130103676271</v>
+        <v>4841538.701377296</v>
       </c>
       <c r="H34">
-        <v>1274.187801722102</v>
+        <v>3986185.517092327</v>
       </c>
       <c r="I34">
-        <v>-62.20361911386777</v>
+        <v>1116277.792217746</v>
       </c>
       <c r="J34">
-        <v>464.1940826265724</v>
+        <v>4841662.94487583</v>
       </c>
       <c r="K34">
-        <v>2053.777199791748</v>
+        <v>3986578.039706146</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>40.54415132363911</v>
+        <v>1116408.1407675</v>
       </c>
       <c r="G35">
-        <v>269.9482560145036</v>
+        <v>4841555.214201001</v>
       </c>
       <c r="H35">
-        <v>1282.462083553013</v>
+        <v>3986197.25545042</v>
       </c>
       <c r="I35">
-        <v>-14.00228928387256</v>
+        <v>1116342.292669083</v>
       </c>
       <c r="J35">
-        <v>413.2320577186755</v>
+        <v>4841614.293322552</v>
       </c>
       <c r="K35">
-        <v>1885.435568216072</v>
+        <v>3986397.078556172</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>39.78677299631153</v>
+        <v>1116407.239386593</v>
       </c>
       <c r="G36">
-        <v>283.4835016613799</v>
+        <v>4841571.727024705</v>
       </c>
       <c r="H36">
-        <v>1290.42476518383</v>
+        <v>3986208.551755074</v>
       </c>
       <c r="I36">
-        <v>35.38595394877609</v>
+        <v>1116408.381384695</v>
       </c>
       <c r="J36">
-        <v>362.2700328107789</v>
+        <v>4841565.641769275</v>
       </c>
       <c r="K36">
-        <v>1703.001683969538</v>
+        <v>3986200.968745553</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>39.07029511725593</v>
+        <v>1116406.386682658</v>
       </c>
       <c r="G37">
-        <v>297.0187473082563</v>
+        <v>4841588.23984841</v>
       </c>
       <c r="H37">
-        <v>1298.098466384662</v>
+        <v>3986219.438095959</v>
       </c>
       <c r="I37">
-        <v>85.99033723467801</v>
+        <v>1116476.097474128</v>
       </c>
       <c r="J37">
-        <v>311.3080079028821</v>
+        <v>4841516.990215997</v>
       </c>
       <c r="K37">
-        <v>1506.475547052145</v>
+        <v>3985989.710274291</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>38.39116562057926</v>
+        <v>1116405.578428263</v>
       </c>
       <c r="G38">
-        <v>310.5539929551327</v>
+        <v>4841604.752672113</v>
       </c>
       <c r="H38">
-        <v>1305.503429919021</v>
+        <v>3986229.94319059</v>
       </c>
       <c r="I38">
-        <v>137.8408069038167</v>
+        <v>1116545.481009966</v>
       </c>
       <c r="J38">
-        <v>260.3459829949854</v>
+        <v>4841468.33866272</v>
       </c>
       <c r="K38">
-        <v>1295.857157463895</v>
+        <v>3985763.303142384</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>37.74624968437934</v>
+        <v>1116404.810892554</v>
       </c>
       <c r="G39">
-        <v>324.0892386020092</v>
+        <v>4841621.265495818</v>
       </c>
       <c r="H39">
-        <v>1312.657843354488</v>
+        <v>3986240.092840863</v>
       </c>
       <c r="I39">
-        <v>190.9680466870001</v>
+        <v>1116616.573051542</v>
       </c>
       <c r="J39">
-        <v>209.3839580870886</v>
+        <v>4841419.687109442</v>
       </c>
       <c r="K39">
-        <v>1071.146515204784</v>
+        <v>3985521.747349832</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>37.13276878065517</v>
+        <v>1116404.080768713</v>
       </c>
       <c r="G40">
-        <v>337.6244842488856</v>
+        <v>4841637.778319523</v>
       </c>
       <c r="H40">
-        <v>1319.578108191256</v>
+        <v>3986249.910314864</v>
       </c>
       <c r="I40">
-        <v>245.4034958736804</v>
+        <v>1116689.415669238</v>
       </c>
       <c r="J40">
-        <v>158.4219331791917</v>
+        <v>4841371.035556166</v>
       </c>
       <c r="K40">
-        <v>832.3436202748145</v>
+        <v>3985265.042896637</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>36.54825026202851</v>
+        <v>1116403.385113962</v>
       </c>
       <c r="G41">
-        <v>351.1597298957619</v>
+        <v>4841654.291143226</v>
       </c>
       <c r="H41">
-        <v>1326.279066330497</v>
+        <v>3986259.416668142</v>
       </c>
       <c r="I41">
-        <v>301.1793679168869</v>
+        <v>1116764.051969381</v>
       </c>
       <c r="J41">
-        <v>107.4599082712951</v>
+        <v>4841322.384002888</v>
       </c>
       <c r="K41">
-        <v>579.4484726739875</v>
+        <v>3984993.189782797</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>35.99048539869808</v>
+        <v>1116402.721299617</v>
       </c>
       <c r="G42">
-        <v>364.6949755426383</v>
+        <v>4841670.803966931</v>
       </c>
       <c r="H42">
-        <v>1332.774191748422</v>
+        <v>3986268.631015631</v>
       </c>
       <c r="I42">
-        <v>358.3286694962972</v>
+        <v>1116840.526119751</v>
       </c>
       <c r="J42">
-        <v>56.49788336339828</v>
+        <v>4841273.732449611</v>
       </c>
       <c r="K42">
-        <v>312.4610724023008</v>
+        <v>3984706.188008312</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>35.45749424159715</v>
+        <v>1116402.086969276</v>
       </c>
       <c r="G43">
-        <v>378.2302211895148</v>
+        <v>4841687.316790636</v>
       </c>
       <c r="H43">
-        <v>1339.075753600147</v>
+        <v>3986277.57076304</v>
       </c>
       <c r="I43">
-        <v>416.8852200507066</v>
+        <v>1116918.883375719</v>
       </c>
       <c r="J43">
-        <v>5.535858455501427</v>
+        <v>4841225.080896333</v>
       </c>
       <c r="K43">
-        <v>31.38141945975579</v>
+        <v>3984404.037573184</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>34.94749603743627</v>
+        <v>1116401.480003606</v>
       </c>
       <c r="G44">
-        <v>391.7654668363912</v>
+        <v>4841703.829614339</v>
       </c>
       <c r="H44">
-        <v>1345.194955716066</v>
+        <v>3986286.251804748</v>
       </c>
       <c r="I44">
-        <v>476.8836717914791</v>
+        <v>1116999.170107028</v>
       </c>
       <c r="J44">
-        <v>-45.42616645239519</v>
+        <v>4841176.429343056</v>
       </c>
       <c r="K44">
-        <v>-263.7904861536471</v>
+        <v>3984086.738477411</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>34.45888418807638</v>
+        <v>1116400.898490542</v>
       </c>
       <c r="G45">
-        <v>405.3007124832675</v>
+        <v>4841720.342438044</v>
       </c>
       <c r="H45">
-        <v>1351.142056475938</v>
+        <v>3986294.688693865</v>
       </c>
       <c r="I45">
-        <v>538.359530208805</v>
+        <v>1117081.433825233</v>
       </c>
       <c r="J45">
-        <v>-96.38819136029204</v>
+        <v>4841127.777789778</v>
       </c>
       <c r="K45">
-        <v>-573.0546444379095</v>
+        <v>3983754.290720995</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>33.99020495188224</v>
+        <v>1116400.340699937</v>
       </c>
       <c r="G46">
-        <v>418.835958130144</v>
+        <v>4841736.855261748</v>
       </c>
       <c r="H46">
-        <v>1356.926472282463</v>
+        <v>3986302.894789027</v>
       </c>
       <c r="I46">
-        <v>601.3491750829053</v>
+        <v>1117165.723211817</v>
       </c>
       <c r="J46">
-        <v>-147.3502162681889</v>
+        <v>4841079.1262365</v>
       </c>
       <c r="K46">
-        <v>-896.4110553930312</v>
+        <v>3983406.694303933</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>33.54013924381131</v>
+        <v>1116399.805061906</v>
       </c>
       <c r="G47">
-        <v>432.3712037770204</v>
+        <v>4841753.368085452</v>
       </c>
       <c r="H47">
-        <v>1362.556867255391</v>
+        <v>3986310.882381635</v>
       </c>
       <c r="I47">
-        <v>665.8898820126194</v>
+        <v>1117252.088147001</v>
       </c>
       <c r="J47">
-        <v>-198.3122411760857</v>
+        <v>4841030.474683223</v>
       </c>
       <c r="K47">
-        <v>-1233.859719019011</v>
+        <v>3983043.949226228</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>33.10748701526408</v>
+        <v>1116399.290148231</v>
       </c>
       <c r="G48">
-        <v>445.9064494238967</v>
+        <v>4841769.880909157</v>
       </c>
       <c r="H48">
-        <v>1368.04123129114</v>
+        <v>3986318.662806605</v>
       </c>
       <c r="I48">
-        <v>732.0198444741158</v>
+        <v>1117340.57973926</v>
       </c>
       <c r="J48">
-        <v>-249.2742660839821</v>
+        <v>4840981.823129946</v>
       </c>
       <c r="K48">
-        <v>-1585.400635315847</v>
+        <v>3982666.055487877</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>32.6911537924759</v>
+        <v>1116398.794656342</v>
       </c>
       <c r="G49">
-        <v>459.4416950707732</v>
+        <v>4841786.393732861</v>
       </c>
       <c r="H49">
-        <v>1373.386948253206</v>
+        <v>3986326.246539096</v>
       </c>
       <c r="I49">
-        <v>799.7781964227775</v>
+        <v>1117431.250355568</v>
       </c>
       <c r="J49">
-        <v>-300.2362909918789</v>
+        <v>4840933.171576669</v>
       </c>
       <c r="K49">
-        <v>-1951.033804283544</v>
+        <v>3982273.013088883</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>32.29013902962792</v>
+        <v>1116398.317395458</v>
       </c>
       <c r="G50">
-        <v>472.9769407176495</v>
+        <v>4841802.906556565</v>
       </c>
       <c r="H50">
-        <v>1378.600855753847</v>
+        <v>3986333.643279328</v>
       </c>
       <c r="I50">
-        <v>869.2050354516335</v>
+        <v>1117524.153652386</v>
       </c>
       <c r="J50">
-        <v>-351.1983158997758</v>
+        <v>4840884.520023391</v>
       </c>
       <c r="K50">
-        <v>-2330.7592259221</v>
+        <v>3981864.822029245</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>31.9035259945243</v>
+        <v>1116397.857274544</v>
       </c>
       <c r="G51">
-        <v>486.5121863645259</v>
+        <v>4841819.41938027</v>
       </c>
       <c r="H51">
-        <v>1383.689297741426</v>
+        <v>3986340.862027179</v>
       </c>
       <c r="I51">
-        <v>940.3414465200545</v>
+        <v>1117619.34460742</v>
       </c>
       <c r="J51">
-        <v>-402.1603408076727</v>
+        <v>4840835.868470114</v>
       </c>
       <c r="K51">
-        <v>-2724.576900231515</v>
+        <v>3981441.482308962</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>31.53047295411235</v>
+        <v>1116397.413291826</v>
       </c>
       <c r="G52">
-        <v>500.0474320114024</v>
+        <v>4841835.932203974</v>
       </c>
       <c r="H52">
-        <v>1388.658170907999</v>
+        <v>3986347.911148025</v>
       </c>
       <c r="I52">
-        <v>1013.229526266738</v>
+        <v>1117716.879552146</v>
       </c>
       <c r="J52">
-        <v>-453.1223657155695</v>
+        <v>4840787.216916837</v>
       </c>
       <c r="K52">
-        <v>-3132.486827211787</v>
+        <v>3981002.993928035</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>31.17020546695869</v>
+        <v>1116396.984525617</v>
       </c>
       <c r="G53">
-        <v>513.5826776582787</v>
+        <v>4841852.445027679</v>
       </c>
       <c r="H53">
-        <v>1393.512965768619</v>
+        <v>3986354.798431019</v>
       </c>
       <c r="I53">
-        <v>1087.912407921378</v>
+        <v>1117816.816205157</v>
       </c>
       <c r="J53">
-        <v>-504.0843906234659</v>
+        <v>4840738.565363559</v>
       </c>
       <c r="K53">
-        <v>-3554.489006862917</v>
+        <v>3980549.356886464</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2294,3741 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>30.82200962208202</v>
+        <v>1116396.570126267</v>
       </c>
       <c r="G54">
-        <v>527.1179233051552</v>
+        <v>4841868.957851384</v>
       </c>
       <c r="H54">
-        <v>1398.258803130032</v>
+        <v>3986361.531140822</v>
       </c>
       <c r="I54">
-        <v>1164.434286829774</v>
+        <v>1117919.213706308</v>
       </c>
       <c r="J54">
-        <v>-555.0464155313628</v>
+        <v>4840689.913810281</v>
       </c>
       <c r="K54">
-        <v>-3990.583439184907</v>
+        <v>3980080.571184248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116580.266067392</v>
+      </c>
+      <c r="G55">
+        <v>4841115.467762928</v>
+      </c>
+      <c r="H55">
+        <v>3985227.050225786</v>
+      </c>
+      <c r="I55">
+        <v>1114860.769744665</v>
+      </c>
+      <c r="J55">
+        <v>4843223.893240266</v>
+      </c>
+      <c r="K55">
+        <v>3984366.945556114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116580.266067392</v>
+      </c>
+      <c r="G56">
+        <v>4841115.467762928</v>
+      </c>
+      <c r="H56">
+        <v>3985227.050225786</v>
+      </c>
+      <c r="I56">
+        <v>1114890.383725518</v>
+      </c>
+      <c r="J56">
+        <v>4843175.241645817</v>
+      </c>
+      <c r="K56">
+        <v>3984670.74129071</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116580.266067392</v>
+      </c>
+      <c r="G57">
+        <v>4841115.467762928</v>
+      </c>
+      <c r="H57">
+        <v>3985227.050225786</v>
+      </c>
+      <c r="I57">
+        <v>1114920.726923405</v>
+      </c>
+      <c r="J57">
+        <v>4843126.590051366</v>
+      </c>
+      <c r="K57">
+        <v>3984959.38837743</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116580.266067392</v>
+      </c>
+      <c r="G58">
+        <v>4841115.467762928</v>
+      </c>
+      <c r="H58">
+        <v>3985227.050225786</v>
+      </c>
+      <c r="I58">
+        <v>1114951.817294626</v>
+      </c>
+      <c r="J58">
+        <v>4843077.938456917</v>
+      </c>
+      <c r="K58">
+        <v>3985232.886816272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116580.266067392</v>
+      </c>
+      <c r="G59">
+        <v>4841115.467762928</v>
+      </c>
+      <c r="H59">
+        <v>3985227.050225786</v>
+      </c>
+      <c r="I59">
+        <v>1114983.673237634</v>
+      </c>
+      <c r="J59">
+        <v>4843029.286862467</v>
+      </c>
+      <c r="K59">
+        <v>3985491.236607239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116580.266067392</v>
+      </c>
+      <c r="G60">
+        <v>4841115.467762928</v>
+      </c>
+      <c r="H60">
+        <v>3985227.050225786</v>
+      </c>
+      <c r="I60">
+        <v>1115016.313603933</v>
+      </c>
+      <c r="J60">
+        <v>4842980.635268019</v>
+      </c>
+      <c r="K60">
+        <v>3985734.437750328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116580.266067392</v>
+      </c>
+      <c r="G61">
+        <v>4841115.467762928</v>
+      </c>
+      <c r="H61">
+        <v>3985227.050225786</v>
+      </c>
+      <c r="I61">
+        <v>1115049.757709223</v>
+      </c>
+      <c r="J61">
+        <v>4842931.983673568</v>
+      </c>
+      <c r="K61">
+        <v>3985962.490245541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116580.266067392</v>
+      </c>
+      <c r="G62">
+        <v>4841115.467762928</v>
+      </c>
+      <c r="H62">
+        <v>3985227.050225786</v>
+      </c>
+      <c r="I62">
+        <v>1115084.025344838</v>
+      </c>
+      <c r="J62">
+        <v>4842883.332079119</v>
+      </c>
+      <c r="K62">
+        <v>3986175.394092877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116580.266067392</v>
+      </c>
+      <c r="G63">
+        <v>4841131.980551114</v>
+      </c>
+      <c r="H63">
+        <v>3985227.050225786</v>
+      </c>
+      <c r="I63">
+        <v>1115119.136789454</v>
+      </c>
+      <c r="J63">
+        <v>4842834.680484669</v>
+      </c>
+      <c r="K63">
+        <v>3986373.149292337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116531.585426793</v>
+      </c>
+      <c r="G64">
+        <v>4841148.4933393</v>
+      </c>
+      <c r="H64">
+        <v>3985426.304568656</v>
+      </c>
+      <c r="I64">
+        <v>1115155.112821092</v>
+      </c>
+      <c r="J64">
+        <v>4842786.02889022</v>
+      </c>
+      <c r="K64">
+        <v>3986555.75584392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116502.987992526</v>
+      </c>
+      <c r="G65">
+        <v>4841165.006127487</v>
+      </c>
+      <c r="H65">
+        <v>3985544.990645524</v>
+      </c>
+      <c r="I65">
+        <v>1115191.974729412</v>
+      </c>
+      <c r="J65">
+        <v>4842737.37729577</v>
+      </c>
+      <c r="K65">
+        <v>3986723.213747627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116484.935194003</v>
+      </c>
+      <c r="G66">
+        <v>4841181.518915673</v>
+      </c>
+      <c r="H66">
+        <v>3985629.807562976</v>
+      </c>
+      <c r="I66">
+        <v>1115229.744328311</v>
+      </c>
+      <c r="J66">
+        <v>4842688.72570132</v>
+      </c>
+      <c r="K66">
+        <v>3986875.523003456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116472.345245593</v>
+      </c>
+      <c r="G67">
+        <v>4841198.031703859</v>
+      </c>
+      <c r="H67">
+        <v>3985695.854451155</v>
+      </c>
+      <c r="I67">
+        <v>1115268.443968836</v>
+      </c>
+      <c r="J67">
+        <v>4842640.074106871</v>
+      </c>
+      <c r="K67">
+        <v>3987012.68361141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116462.952767054</v>
+      </c>
+      <c r="G68">
+        <v>4841214.544492044</v>
+      </c>
+      <c r="H68">
+        <v>3985749.951975637</v>
+      </c>
+      <c r="I68">
+        <v>1115308.096552406</v>
+      </c>
+      <c r="J68">
+        <v>4842591.422512421</v>
+      </c>
+      <c r="K68">
+        <v>3987134.695571486</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>60</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116455.609160457</v>
+      </c>
+      <c r="G69">
+        <v>4841231.05728023</v>
+      </c>
+      <c r="H69">
+        <v>3985795.768629946</v>
+      </c>
+      <c r="I69">
+        <v>1115348.725544367</v>
+      </c>
+      <c r="J69">
+        <v>4842542.770917971</v>
+      </c>
+      <c r="K69">
+        <v>3987241.558883687</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116449.667648014</v>
+      </c>
+      <c r="G70">
+        <v>4841247.570068417</v>
+      </c>
+      <c r="H70">
+        <v>3985835.506233102</v>
+      </c>
+      <c r="I70">
+        <v>1115390.354987877</v>
+      </c>
+      <c r="J70">
+        <v>4842494.119323522</v>
+      </c>
+      <c r="K70">
+        <v>3987333.27354801</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116444.734075607</v>
+      </c>
+      <c r="G71">
+        <v>4841264.082856603</v>
+      </c>
+      <c r="H71">
+        <v>3985870.590604506</v>
+      </c>
+      <c r="I71">
+        <v>1115433.009518135</v>
+      </c>
+      <c r="J71">
+        <v>4842445.467729072</v>
+      </c>
+      <c r="K71">
+        <v>3987409.839564457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116440.553244197</v>
+      </c>
+      <c r="G72">
+        <v>4841280.595644789</v>
+      </c>
+      <c r="H72">
+        <v>3985901.998176902</v>
+      </c>
+      <c r="I72">
+        <v>1115476.714376959</v>
+      </c>
+      <c r="J72">
+        <v>4842396.816134623</v>
+      </c>
+      <c r="K72">
+        <v>3987471.256933027</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>60</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116436.951865821</v>
+      </c>
+      <c r="G73">
+        <v>4841297.108432975</v>
+      </c>
+      <c r="H73">
+        <v>3985930.42701815</v>
+      </c>
+      <c r="I73">
+        <v>1115521.495427724</v>
+      </c>
+      <c r="J73">
+        <v>4842348.164540173</v>
+      </c>
+      <c r="K73">
+        <v>3987517.52565372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116433.80767641</v>
+      </c>
+      <c r="G74">
+        <v>4841313.621221161</v>
+      </c>
+      <c r="H74">
+        <v>3985956.393518564</v>
+      </c>
+      <c r="I74">
+        <v>1115567.379170666</v>
+      </c>
+      <c r="J74">
+        <v>4842299.512945724</v>
+      </c>
+      <c r="K74">
+        <v>3987548.645726538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>60</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116431.031654331</v>
+      </c>
+      <c r="G75">
+        <v>4841330.134009347</v>
+      </c>
+      <c r="H75">
+        <v>3985980.290432784</v>
+      </c>
+      <c r="I75">
+        <v>1115614.392758566</v>
+      </c>
+      <c r="J75">
+        <v>4842250.861351274</v>
+      </c>
+      <c r="K75">
+        <v>3987564.617151478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116428.557255591</v>
+      </c>
+      <c r="G76">
+        <v>4841346.646797533</v>
+      </c>
+      <c r="H76">
+        <v>3986002.423447513</v>
+      </c>
+      <c r="I76">
+        <v>1115662.564012816</v>
+      </c>
+      <c r="J76">
+        <v>4842202.209756824</v>
+      </c>
+      <c r="K76">
+        <v>3987565.439928542</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>60</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116426.333617544</v>
+      </c>
+      <c r="G77">
+        <v>4841363.15958572</v>
+      </c>
+      <c r="H77">
+        <v>3986023.035155615</v>
+      </c>
+      <c r="I77">
+        <v>1115711.921439885</v>
+      </c>
+      <c r="J77">
+        <v>4842153.558162374</v>
+      </c>
+      <c r="K77">
+        <v>3987551.114057729</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116424.321112962</v>
+      </c>
+      <c r="G78">
+        <v>4841379.672373905</v>
+      </c>
+      <c r="H78">
+        <v>3986042.321307437</v>
+      </c>
+      <c r="I78">
+        <v>1115762.494248188</v>
+      </c>
+      <c r="J78">
+        <v>4842104.906567925</v>
+      </c>
+      <c r="K78">
+        <v>3987521.639539039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>60</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116422.488351763</v>
+      </c>
+      <c r="G79">
+        <v>4841396.185162092</v>
+      </c>
+      <c r="H79">
+        <v>3986060.442144802</v>
+      </c>
+      <c r="I79">
+        <v>1115814.312365369</v>
+      </c>
+      <c r="J79">
+        <v>4842056.254973476</v>
+      </c>
+      <c r="K79">
+        <v>3987477.016372473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>60</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116420.810104989</v>
+      </c>
+      <c r="G80">
+        <v>4841412.697950277</v>
+      </c>
+      <c r="H80">
+        <v>3986077.5305017</v>
+      </c>
+      <c r="I80">
+        <v>1115867.406456014</v>
+      </c>
+      <c r="J80">
+        <v>4842007.603379025</v>
+      </c>
+      <c r="K80">
+        <v>3987417.244558031</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>60</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116419.265833841</v>
+      </c>
+      <c r="G81">
+        <v>4841429.210738463</v>
+      </c>
+      <c r="H81">
+        <v>3986093.697719036</v>
+      </c>
+      <c r="I81">
+        <v>1115921.807939796</v>
+      </c>
+      <c r="J81">
+        <v>4841958.951784575</v>
+      </c>
+      <c r="K81">
+        <v>3987342.324095711</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116417.838625989</v>
+      </c>
+      <c r="G82">
+        <v>4841445.72352665</v>
+      </c>
+      <c r="H82">
+        <v>3986109.038045194</v>
+      </c>
+      <c r="I82">
+        <v>1115977.549010067</v>
+      </c>
+      <c r="J82">
+        <v>4841910.300190127</v>
+      </c>
+      <c r="K82">
+        <v>3987252.254985516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116416.514412395</v>
+      </c>
+      <c r="G83">
+        <v>4841462.236314835</v>
+      </c>
+      <c r="H83">
+        <v>3986123.631964989</v>
+      </c>
+      <c r="I83">
+        <v>1116034.662652913</v>
+      </c>
+      <c r="J83">
+        <v>4841861.648595677</v>
+      </c>
+      <c r="K83">
+        <v>3987147.037227443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>60</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116415.281381256</v>
+      </c>
+      <c r="G84">
+        <v>4841478.749103022</v>
+      </c>
+      <c r="H84">
+        <v>3986137.548755682</v>
+      </c>
+      <c r="I84">
+        <v>1116093.18266667</v>
+      </c>
+      <c r="J84">
+        <v>4841812.997001227</v>
+      </c>
+      <c r="K84">
+        <v>3987026.670821494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>60</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116414.129533045</v>
+      </c>
+      <c r="G85">
+        <v>4841495.261891209</v>
+      </c>
+      <c r="H85">
+        <v>3986150.848475871</v>
+      </c>
+      <c r="I85">
+        <v>1116153.143681929</v>
+      </c>
+      <c r="J85">
+        <v>4841764.345406777</v>
+      </c>
+      <c r="K85">
+        <v>3986891.155767669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>60</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116413.050338203</v>
+      </c>
+      <c r="G86">
+        <v>4841511.774679394</v>
+      </c>
+      <c r="H86">
+        <v>3986163.583531889</v>
+      </c>
+      <c r="I86">
+        <v>1116214.581182025</v>
+      </c>
+      <c r="J86">
+        <v>4841715.693812328</v>
+      </c>
+      <c r="K86">
+        <v>3986740.492065966</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116412.036470632</v>
+      </c>
+      <c r="G87">
+        <v>4841528.28746758</v>
+      </c>
+      <c r="H87">
+        <v>3986175.799925013</v>
+      </c>
+      <c r="I87">
+        <v>1116277.53152404</v>
+      </c>
+      <c r="J87">
+        <v>4841667.042217879</v>
+      </c>
+      <c r="K87">
+        <v>3986574.679716387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>60</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116411.081597934</v>
+      </c>
+      <c r="G88">
+        <v>4841544.800255765</v>
+      </c>
+      <c r="H88">
+        <v>3986187.538254491</v>
+      </c>
+      <c r="I88">
+        <v>1116342.031960313</v>
+      </c>
+      <c r="J88">
+        <v>4841618.390623428</v>
+      </c>
+      <c r="K88">
+        <v>3986393.718718932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>60</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116410.180214653</v>
+      </c>
+      <c r="G89">
+        <v>4841561.313043952</v>
+      </c>
+      <c r="H89">
+        <v>3986198.834531608</v>
+      </c>
+      <c r="I89">
+        <v>1116408.12066049</v>
+      </c>
+      <c r="J89">
+        <v>4841569.739028979</v>
+      </c>
+      <c r="K89">
+        <v>3986197.6090736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>60</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116409.327508471</v>
+      </c>
+      <c r="G90">
+        <v>4841577.825832139</v>
+      </c>
+      <c r="H90">
+        <v>3986209.720845956</v>
+      </c>
+      <c r="I90">
+        <v>1116475.836734109</v>
+      </c>
+      <c r="J90">
+        <v>4841521.087434529</v>
+      </c>
+      <c r="K90">
+        <v>3985986.350780391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>60</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116408.519251948</v>
+      </c>
+      <c r="G91">
+        <v>4841594.338620324</v>
+      </c>
+      <c r="H91">
+        <v>3986220.225914977</v>
+      </c>
+      <c r="I91">
+        <v>1116545.220253743</v>
+      </c>
+      <c r="J91">
+        <v>4841472.43584008</v>
+      </c>
+      <c r="K91">
+        <v>3985759.943839306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>60</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116407.751714217</v>
+      </c>
+      <c r="G92">
+        <v>4841610.85140851</v>
+      </c>
+      <c r="H92">
+        <v>3986230.375540509</v>
+      </c>
+      <c r="I92">
+        <v>1116616.312278717</v>
+      </c>
+      <c r="J92">
+        <v>4841423.78424563</v>
+      </c>
+      <c r="K92">
+        <v>3985518.388250344</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>60</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116407.021588453</v>
+      </c>
+      <c r="G93">
+        <v>4841627.364196697</v>
+      </c>
+      <c r="H93">
+        <v>3986240.192990578</v>
+      </c>
+      <c r="I93">
+        <v>1116689.154879401</v>
+      </c>
+      <c r="J93">
+        <v>4841375.13265118</v>
+      </c>
+      <c r="K93">
+        <v>3985261.684013505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>60</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116406.325931868</v>
+      </c>
+      <c r="G94">
+        <v>4841643.876984882</v>
+      </c>
+      <c r="H94">
+        <v>3986249.699320681</v>
+      </c>
+      <c r="I94">
+        <v>1116763.791162114</v>
+      </c>
+      <c r="J94">
+        <v>4841326.481056731</v>
+      </c>
+      <c r="K94">
+        <v>3984989.83112879</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>60</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116405.662115775</v>
+      </c>
+      <c r="G95">
+        <v>4841660.389773069</v>
+      </c>
+      <c r="H95">
+        <v>3986258.913645709</v>
+      </c>
+      <c r="I95">
+        <v>1116840.265294624</v>
+      </c>
+      <c r="J95">
+        <v>4841277.829462281</v>
+      </c>
+      <c r="K95">
+        <v>3984702.829596198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>60</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116405.027783763</v>
+      </c>
+      <c r="G96">
+        <v>4841676.902561255</v>
+      </c>
+      <c r="H96">
+        <v>3986267.853371325</v>
+      </c>
+      <c r="I96">
+        <v>1116918.622532293</v>
+      </c>
+      <c r="J96">
+        <v>4841229.177867832</v>
+      </c>
+      <c r="K96">
+        <v>3984400.67941573</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>60</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116404.420816494</v>
+      </c>
+      <c r="G97">
+        <v>4841693.415349441</v>
+      </c>
+      <c r="H97">
+        <v>3986276.534391872</v>
+      </c>
+      <c r="I97">
+        <v>1116998.909244852</v>
+      </c>
+      <c r="J97">
+        <v>4841180.526273382</v>
+      </c>
+      <c r="K97">
+        <v>3984083.380587385</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>60</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116403.839301898</v>
+      </c>
+      <c r="G98">
+        <v>4841709.928137627</v>
+      </c>
+      <c r="H98">
+        <v>3986284.971260422</v>
+      </c>
+      <c r="I98">
+        <v>1117081.172943845</v>
+      </c>
+      <c r="J98">
+        <v>4841131.874678933</v>
+      </c>
+      <c r="K98">
+        <v>3983750.933111163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>60</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116403.281509825</v>
+      </c>
+      <c r="G99">
+        <v>4841726.440925812</v>
+      </c>
+      <c r="H99">
+        <v>3986293.177335579</v>
+      </c>
+      <c r="I99">
+        <v>1117165.462310744</v>
+      </c>
+      <c r="J99">
+        <v>4841083.223084482</v>
+      </c>
+      <c r="K99">
+        <v>3983403.336987065</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>60</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116402.745870383</v>
+      </c>
+      <c r="G100">
+        <v>4841742.953713999</v>
+      </c>
+      <c r="H100">
+        <v>3986301.164908717</v>
+      </c>
+      <c r="I100">
+        <v>1117251.827225759</v>
+      </c>
+      <c r="J100">
+        <v>4841034.571490033</v>
+      </c>
+      <c r="K100">
+        <v>3983040.592215091</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>60</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116402.230955351</v>
+      </c>
+      <c r="G101">
+        <v>4841759.466502185</v>
+      </c>
+      <c r="H101">
+        <v>3986308.94531472</v>
+      </c>
+      <c r="I101">
+        <v>1117340.318797352</v>
+      </c>
+      <c r="J101">
+        <v>4840985.919895584</v>
+      </c>
+      <c r="K101">
+        <v>3982662.698795239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>60</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116401.735462157</v>
+      </c>
+      <c r="G102">
+        <v>4841775.979290371</v>
+      </c>
+      <c r="H102">
+        <v>3986316.529028724</v>
+      </c>
+      <c r="I102">
+        <v>1117430.989392484</v>
+      </c>
+      <c r="J102">
+        <v>4840937.268301134</v>
+      </c>
+      <c r="K102">
+        <v>3982269.656727511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116401.258200015</v>
+      </c>
+      <c r="G103">
+        <v>4841792.492078558</v>
+      </c>
+      <c r="H103">
+        <v>3986323.925750925</v>
+      </c>
+      <c r="I103">
+        <v>1117523.892667606</v>
+      </c>
+      <c r="J103">
+        <v>4840888.616706684</v>
+      </c>
+      <c r="K103">
+        <v>3981861.466011906</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>60</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116400.798077889</v>
+      </c>
+      <c r="G104">
+        <v>4841809.004866743</v>
+      </c>
+      <c r="H104">
+        <v>3986331.144481178</v>
+      </c>
+      <c r="I104">
+        <v>1117619.083600409</v>
+      </c>
+      <c r="J104">
+        <v>4840839.965112234</v>
+      </c>
+      <c r="K104">
+        <v>3981438.126648425</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>60</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116400.354094002</v>
+      </c>
+      <c r="G105">
+        <v>4841825.517654929</v>
+      </c>
+      <c r="H105">
+        <v>3986338.193584841</v>
+      </c>
+      <c r="I105">
+        <v>1117716.618522358</v>
+      </c>
+      <c r="J105">
+        <v>4840791.313517785</v>
+      </c>
+      <c r="K105">
+        <v>3980999.638637067</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>60</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116399.925326664</v>
+      </c>
+      <c r="G106">
+        <v>4841842.030443115</v>
+      </c>
+      <c r="H106">
+        <v>3986345.080851046</v>
+      </c>
+      <c r="I106">
+        <v>1117816.555152029</v>
+      </c>
+      <c r="J106">
+        <v>4840742.661923336</v>
+      </c>
+      <c r="K106">
+        <v>3980546.001977833</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>60</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116399.510926222</v>
+      </c>
+      <c r="G107">
+        <v>4841858.543231302</v>
+      </c>
+      <c r="H107">
+        <v>3986351.813544437</v>
+      </c>
+      <c r="I107">
+        <v>1117918.952629266</v>
+      </c>
+      <c r="J107">
+        <v>4840694.010328885</v>
+      </c>
+      <c r="K107">
+        <v>3980077.216670722</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>60</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116576.944479126</v>
+      </c>
+      <c r="G108">
+        <v>4841121.371566223</v>
+      </c>
+      <c r="H108">
+        <v>3985224.688750539</v>
+      </c>
+      <c r="I108">
+        <v>1114861.149078523</v>
+      </c>
+      <c r="J108">
+        <v>4843232.621328713</v>
+      </c>
+      <c r="K108">
+        <v>3984366.993017239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>60</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116576.944479126</v>
+      </c>
+      <c r="G109">
+        <v>4841121.371566223</v>
+      </c>
+      <c r="H109">
+        <v>3985224.688750539</v>
+      </c>
+      <c r="I109">
+        <v>1114890.763069452</v>
+      </c>
+      <c r="J109">
+        <v>4843183.969646587</v>
+      </c>
+      <c r="K109">
+        <v>3984670.788755454</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>60</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116576.944479126</v>
+      </c>
+      <c r="G110">
+        <v>4841121.371566223</v>
+      </c>
+      <c r="H110">
+        <v>3985224.688750539</v>
+      </c>
+      <c r="I110">
+        <v>1114921.106277664</v>
+      </c>
+      <c r="J110">
+        <v>4843135.317964461</v>
+      </c>
+      <c r="K110">
+        <v>3984959.435845612</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>60</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116576.944479126</v>
+      </c>
+      <c r="G111">
+        <v>4841121.371566223</v>
+      </c>
+      <c r="H111">
+        <v>3985224.688750539</v>
+      </c>
+      <c r="I111">
+        <v>1114952.196659463</v>
+      </c>
+      <c r="J111">
+        <v>4843086.666282335</v>
+      </c>
+      <c r="K111">
+        <v>3985232.934287712</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>60</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116576.944479126</v>
+      </c>
+      <c r="G112">
+        <v>4841121.371566223</v>
+      </c>
+      <c r="H112">
+        <v>3985224.688750539</v>
+      </c>
+      <c r="I112">
+        <v>1114984.052613311</v>
+      </c>
+      <c r="J112">
+        <v>4843038.01460021</v>
+      </c>
+      <c r="K112">
+        <v>3985491.284081756</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>60</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116576.944479126</v>
+      </c>
+      <c r="G113">
+        <v>4841121.371566223</v>
+      </c>
+      <c r="H113">
+        <v>3985224.688750539</v>
+      </c>
+      <c r="I113">
+        <v>1115016.692990715</v>
+      </c>
+      <c r="J113">
+        <v>4842989.362918084</v>
+      </c>
+      <c r="K113">
+        <v>3985734.485227743</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116576.944479126</v>
+      </c>
+      <c r="G114">
+        <v>4841121.371566223</v>
+      </c>
+      <c r="H114">
+        <v>3985224.688750539</v>
+      </c>
+      <c r="I114">
+        <v>1115050.137107385</v>
+      </c>
+      <c r="J114">
+        <v>4842940.711235958</v>
+      </c>
+      <c r="K114">
+        <v>3985962.537725672</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116576.944479126</v>
+      </c>
+      <c r="G115">
+        <v>4841121.371566223</v>
+      </c>
+      <c r="H115">
+        <v>3985224.688750539</v>
+      </c>
+      <c r="I115">
+        <v>1115084.404754659</v>
+      </c>
+      <c r="J115">
+        <v>4842892.059553832</v>
+      </c>
+      <c r="K115">
+        <v>3986175.441575544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116576.944479126</v>
+      </c>
+      <c r="G116">
+        <v>4841137.884374547</v>
+      </c>
+      <c r="H116">
+        <v>3985224.688750539</v>
+      </c>
+      <c r="I116">
+        <v>1115119.516211222</v>
+      </c>
+      <c r="J116">
+        <v>4842843.407871706</v>
+      </c>
+      <c r="K116">
+        <v>3986373.196777359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116528.263983341</v>
+      </c>
+      <c r="G117">
+        <v>4841154.39718287</v>
+      </c>
+      <c r="H117">
+        <v>3985423.94297534</v>
+      </c>
+      <c r="I117">
+        <v>1115155.492255101</v>
+      </c>
+      <c r="J117">
+        <v>4842794.756189581</v>
+      </c>
+      <c r="K117">
+        <v>3986555.803331118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>60</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116499.666634145</v>
+      </c>
+      <c r="G118">
+        <v>4841170.909991194</v>
+      </c>
+      <c r="H118">
+        <v>3985542.628981879</v>
+      </c>
+      <c r="I118">
+        <v>1115192.354175963</v>
+      </c>
+      <c r="J118">
+        <v>4842746.104507455</v>
+      </c>
+      <c r="K118">
+        <v>3986723.261236819</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>60</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116481.613889325</v>
+      </c>
+      <c r="G119">
+        <v>4841187.422799517</v>
+      </c>
+      <c r="H119">
+        <v>3985627.445849073</v>
+      </c>
+      <c r="I119">
+        <v>1115230.123787714</v>
+      </c>
+      <c r="J119">
+        <v>4842697.452825329</v>
+      </c>
+      <c r="K119">
+        <v>3986875.570494463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>60</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116469.023978368</v>
+      </c>
+      <c r="G120">
+        <v>4841203.935607841</v>
+      </c>
+      <c r="H120">
+        <v>3985693.492698115</v>
+      </c>
+      <c r="I120">
+        <v>1115268.823441407</v>
+      </c>
+      <c r="J120">
+        <v>4842648.801143203</v>
+      </c>
+      <c r="K120">
+        <v>3987012.73110405</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>60</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116459.631527769</v>
+      </c>
+      <c r="G121">
+        <v>4841220.448416165</v>
+      </c>
+      <c r="H121">
+        <v>3985747.590190542</v>
+      </c>
+      <c r="I121">
+        <v>1115308.476038469</v>
+      </c>
+      <c r="J121">
+        <v>4842600.149461078</v>
+      </c>
+      <c r="K121">
+        <v>3987134.74306558</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>60</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116452.287943017</v>
+      </c>
+      <c r="G122">
+        <v>4841236.961224488</v>
+      </c>
+      <c r="H122">
+        <v>3985793.406817701</v>
+      </c>
+      <c r="I122">
+        <v>1115349.105044254</v>
+      </c>
+      <c r="J122">
+        <v>4842551.497778951</v>
+      </c>
+      <c r="K122">
+        <v>3987241.606379054</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>60</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116446.34644825</v>
+      </c>
+      <c r="G123">
+        <v>4841253.474032812</v>
+      </c>
+      <c r="H123">
+        <v>3985833.144397311</v>
+      </c>
+      <c r="I123">
+        <v>1115390.734501928</v>
+      </c>
+      <c r="J123">
+        <v>4842502.846096826</v>
+      </c>
+      <c r="K123">
+        <v>3987333.321044469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>60</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116441.412890519</v>
+      </c>
+      <c r="G124">
+        <v>4841269.986841136</v>
+      </c>
+      <c r="H124">
+        <v>3985868.228747925</v>
+      </c>
+      <c r="I124">
+        <v>1115433.389046699</v>
+      </c>
+      <c r="J124">
+        <v>4842454.1944147</v>
+      </c>
+      <c r="K124">
+        <v>3987409.887061828</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>60</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116437.232071546</v>
+      </c>
+      <c r="G125">
+        <v>4841286.499649459</v>
+      </c>
+      <c r="H125">
+        <v>3985899.636301711</v>
+      </c>
+      <c r="I125">
+        <v>1115477.093920394</v>
+      </c>
+      <c r="J125">
+        <v>4842405.542732575</v>
+      </c>
+      <c r="K125">
+        <v>3987471.30443113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>60</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116433.630703884</v>
+      </c>
+      <c r="G126">
+        <v>4841303.012457782</v>
+      </c>
+      <c r="H126">
+        <v>3985928.065126112</v>
+      </c>
+      <c r="I126">
+        <v>1115521.874986396</v>
+      </c>
+      <c r="J126">
+        <v>4842356.891050448</v>
+      </c>
+      <c r="K126">
+        <v>3987517.573152374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>60</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116430.486523825</v>
+      </c>
+      <c r="G127">
+        <v>4841319.525266107</v>
+      </c>
+      <c r="H127">
+        <v>3985954.031611139</v>
+      </c>
+      <c r="I127">
+        <v>1115567.75874495</v>
+      </c>
+      <c r="J127">
+        <v>4842308.239368322</v>
+      </c>
+      <c r="K127">
+        <v>3987548.693225563</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>60</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116427.710510005</v>
+      </c>
+      <c r="G128">
+        <v>4841336.03807443</v>
+      </c>
+      <c r="H128">
+        <v>3985977.9285112</v>
+      </c>
+      <c r="I128">
+        <v>1115614.772348846</v>
+      </c>
+      <c r="J128">
+        <v>4842259.587686197</v>
+      </c>
+      <c r="K128">
+        <v>3987564.664650693</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>60</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116425.236118626</v>
+      </c>
+      <c r="G129">
+        <v>4841352.550882754</v>
+      </c>
+      <c r="H129">
+        <v>3986000.061512814</v>
+      </c>
+      <c r="I129">
+        <v>1115662.943619487</v>
+      </c>
+      <c r="J129">
+        <v>4842210.936004071</v>
+      </c>
+      <c r="K129">
+        <v>3987565.487427767</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>60</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116423.012487193</v>
+      </c>
+      <c r="G130">
+        <v>4841369.063691078</v>
+      </c>
+      <c r="H130">
+        <v>3986020.673208702</v>
+      </c>
+      <c r="I130">
+        <v>1115712.30106335</v>
+      </c>
+      <c r="J130">
+        <v>4842162.284321945</v>
+      </c>
+      <c r="K130">
+        <v>3987551.161556783</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>60</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116420.999988598</v>
+      </c>
+      <c r="G131">
+        <v>4841385.576499401</v>
+      </c>
+      <c r="H131">
+        <v>3986039.959349096</v>
+      </c>
+      <c r="I131">
+        <v>1115762.87388886</v>
+      </c>
+      <c r="J131">
+        <v>4842113.63263982</v>
+      </c>
+      <c r="K131">
+        <v>3987521.687037742</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>60</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116419.167232851</v>
+      </c>
+      <c r="G132">
+        <v>4841402.089307724</v>
+      </c>
+      <c r="H132">
+        <v>3986058.080175723</v>
+      </c>
+      <c r="I132">
+        <v>1115814.692023673</v>
+      </c>
+      <c r="J132">
+        <v>4842064.980957693</v>
+      </c>
+      <c r="K132">
+        <v>3987477.063870645</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>60</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116417.48899107</v>
+      </c>
+      <c r="G133">
+        <v>4841418.602116047</v>
+      </c>
+      <c r="H133">
+        <v>3986075.168522495</v>
+      </c>
+      <c r="I133">
+        <v>1115867.786132383</v>
+      </c>
+      <c r="J133">
+        <v>4842016.329275567</v>
+      </c>
+      <c r="K133">
+        <v>3987417.29205549</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>60</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116415.944724516</v>
+      </c>
+      <c r="G134">
+        <v>4841435.114924372</v>
+      </c>
+      <c r="H134">
+        <v>3986091.335730251</v>
+      </c>
+      <c r="I134">
+        <v>1115922.187634675</v>
+      </c>
+      <c r="J134">
+        <v>4841967.677593442</v>
+      </c>
+      <c r="K134">
+        <v>3987342.371592279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>60</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116414.517520909</v>
+      </c>
+      <c r="G135">
+        <v>4841451.627732696</v>
+      </c>
+      <c r="H135">
+        <v>3986106.676047319</v>
+      </c>
+      <c r="I135">
+        <v>1115977.928723912</v>
+      </c>
+      <c r="J135">
+        <v>4841919.025911316</v>
+      </c>
+      <c r="K135">
+        <v>3987252.30248101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>60</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116413.193311255</v>
+      </c>
+      <c r="G136">
+        <v>4841468.140541019</v>
+      </c>
+      <c r="H136">
+        <v>3986121.269958467</v>
+      </c>
+      <c r="I136">
+        <v>1116035.042386191</v>
+      </c>
+      <c r="J136">
+        <v>4841870.374229191</v>
+      </c>
+      <c r="K136">
+        <v>3987147.084721684</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>60</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116411.960283783</v>
+      </c>
+      <c r="G137">
+        <v>4841484.653349343</v>
+      </c>
+      <c r="H137">
+        <v>3986135.186740912</v>
+      </c>
+      <c r="I137">
+        <v>1116093.56241986</v>
+      </c>
+      <c r="J137">
+        <v>4841821.722547064</v>
+      </c>
+      <c r="K137">
+        <v>3987026.718314301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>60</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116410.808438999</v>
+      </c>
+      <c r="G138">
+        <v>4841501.166157667</v>
+      </c>
+      <c r="H138">
+        <v>3986148.486453221</v>
+      </c>
+      <c r="I138">
+        <v>1116153.52345552</v>
+      </c>
+      <c r="J138">
+        <v>4841773.070864938</v>
+      </c>
+      <c r="K138">
+        <v>3986891.203258861</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>60</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116409.729247367</v>
+      </c>
+      <c r="G139">
+        <v>4841517.67896599</v>
+      </c>
+      <c r="H139">
+        <v>3986161.221501693</v>
+      </c>
+      <c r="I139">
+        <v>1116214.960976521</v>
+      </c>
+      <c r="J139">
+        <v>4841724.419182813</v>
+      </c>
+      <c r="K139">
+        <v>3986740.539555364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>60</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116408.715382812</v>
+      </c>
+      <c r="G140">
+        <v>4841534.191774314</v>
+      </c>
+      <c r="H140">
+        <v>3986173.437887578</v>
+      </c>
+      <c r="I140">
+        <v>1116277.911339954</v>
+      </c>
+      <c r="J140">
+        <v>4841675.767500687</v>
+      </c>
+      <c r="K140">
+        <v>3986574.72720381</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>60</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116407.760512955</v>
+      </c>
+      <c r="G141">
+        <v>4841550.704582637</v>
+      </c>
+      <c r="H141">
+        <v>3986185.1762101</v>
+      </c>
+      <c r="I141">
+        <v>1116342.411798174</v>
+      </c>
+      <c r="J141">
+        <v>4841627.115818561</v>
+      </c>
+      <c r="K141">
+        <v>3986393.766204199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>60</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116406.859132355</v>
+      </c>
+      <c r="G142">
+        <v>4841567.217390961</v>
+      </c>
+      <c r="H142">
+        <v>3986196.472480524</v>
+      </c>
+      <c r="I142">
+        <v>1116408.500520838</v>
+      </c>
+      <c r="J142">
+        <v>4841578.464136436</v>
+      </c>
+      <c r="K142">
+        <v>3986197.656556531</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>60</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116406.00642871</v>
+      </c>
+      <c r="G143">
+        <v>4841583.730199285</v>
+      </c>
+      <c r="H143">
+        <v>3986207.358788421</v>
+      </c>
+      <c r="I143">
+        <v>1116476.216617498</v>
+      </c>
+      <c r="J143">
+        <v>4841529.812454309</v>
+      </c>
+      <c r="K143">
+        <v>3985986.398260806</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>60</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116405.198174591</v>
+      </c>
+      <c r="G144">
+        <v>4841600.243007608</v>
+      </c>
+      <c r="H144">
+        <v>3986217.863851218</v>
+      </c>
+      <c r="I144">
+        <v>1116545.60016074</v>
+      </c>
+      <c r="J144">
+        <v>4841481.160772184</v>
+      </c>
+      <c r="K144">
+        <v>3985759.991317024</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>60</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116404.430639143</v>
+      </c>
+      <c r="G145">
+        <v>4841616.755815932</v>
+      </c>
+      <c r="H145">
+        <v>3986228.013470735</v>
+      </c>
+      <c r="I145">
+        <v>1116616.692209902</v>
+      </c>
+      <c r="J145">
+        <v>4841432.509090058</v>
+      </c>
+      <c r="K145">
+        <v>3985518.435725184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>60</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116403.700515551</v>
+      </c>
+      <c r="G146">
+        <v>4841633.268624255</v>
+      </c>
+      <c r="H146">
+        <v>3986237.830914987</v>
+      </c>
+      <c r="I146">
+        <v>1116689.534835372</v>
+      </c>
+      <c r="J146">
+        <v>4841383.857407932</v>
+      </c>
+      <c r="K146">
+        <v>3985261.731485288</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>60</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116403.004861036</v>
+      </c>
+      <c r="G147">
+        <v>4841649.781432579</v>
+      </c>
+      <c r="H147">
+        <v>3986247.337239457</v>
+      </c>
+      <c r="I147">
+        <v>1116764.17114348</v>
+      </c>
+      <c r="J147">
+        <v>4841335.205725807</v>
+      </c>
+      <c r="K147">
+        <v>3984989.878597334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>60</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116402.341046917</v>
+      </c>
+      <c r="G148">
+        <v>4841666.294240903</v>
+      </c>
+      <c r="H148">
+        <v>3986256.551559024</v>
+      </c>
+      <c r="I148">
+        <v>1116840.64530201</v>
+      </c>
+      <c r="J148">
+        <v>4841286.554043681</v>
+      </c>
+      <c r="K148">
+        <v>3984702.877061324</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>60</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116401.706716792</v>
+      </c>
+      <c r="G149">
+        <v>4841682.807049227</v>
+      </c>
+      <c r="H149">
+        <v>3986265.491279344</v>
+      </c>
+      <c r="I149">
+        <v>1116919.00256634</v>
+      </c>
+      <c r="J149">
+        <v>4841237.902361554</v>
+      </c>
+      <c r="K149">
+        <v>3984400.726877257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>60</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116401.09975133</v>
+      </c>
+      <c r="G150">
+        <v>4841699.31985755</v>
+      </c>
+      <c r="H150">
+        <v>3986274.172294746</v>
+      </c>
+      <c r="I150">
+        <v>1116999.289306217</v>
+      </c>
+      <c r="J150">
+        <v>4841189.250679429</v>
+      </c>
+      <c r="K150">
+        <v>3984083.428045132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>60</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116400.518238463</v>
+      </c>
+      <c r="G151">
+        <v>4841715.832665874</v>
+      </c>
+      <c r="H151">
+        <v>3986282.609158297</v>
+      </c>
+      <c r="I151">
+        <v>1117081.5530332</v>
+      </c>
+      <c r="J151">
+        <v>4841140.598997303</v>
+      </c>
+      <c r="K151">
+        <v>3983750.98056495</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>60</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116399.960448049</v>
+      </c>
+      <c r="G152">
+        <v>4841732.345474197</v>
+      </c>
+      <c r="H152">
+        <v>3986290.815228592</v>
+      </c>
+      <c r="I152">
+        <v>1117165.84242878</v>
+      </c>
+      <c r="J152">
+        <v>4841091.947315177</v>
+      </c>
+      <c r="K152">
+        <v>3983403.384436712</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>60</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116399.4248102</v>
+      </c>
+      <c r="G153">
+        <v>4841748.85828252</v>
+      </c>
+      <c r="H153">
+        <v>3986298.802796996</v>
+      </c>
+      <c r="I153">
+        <v>1117252.20737318</v>
+      </c>
+      <c r="J153">
+        <v>4841043.295633052</v>
+      </c>
+      <c r="K153">
+        <v>3983040.639660416</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>60</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116398.909896701</v>
+      </c>
+      <c r="G154">
+        <v>4841765.371090845</v>
+      </c>
+      <c r="H154">
+        <v>3986306.583198389</v>
+      </c>
+      <c r="I154">
+        <v>1117340.698974882</v>
+      </c>
+      <c r="J154">
+        <v>4840994.643950926</v>
+      </c>
+      <c r="K154">
+        <v>3982662.746236063</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>60</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116398.414404981</v>
+      </c>
+      <c r="G155">
+        <v>4841781.883899168</v>
+      </c>
+      <c r="H155">
+        <v>3986314.166907899</v>
+      </c>
+      <c r="I155">
+        <v>1117431.369600866</v>
+      </c>
+      <c r="J155">
+        <v>4840945.9922688</v>
+      </c>
+      <c r="K155">
+        <v>3982269.704163653</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>60</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116397.937144259</v>
+      </c>
+      <c r="G156">
+        <v>4841798.396707492</v>
+      </c>
+      <c r="H156">
+        <v>3986321.563625717</v>
+      </c>
+      <c r="I156">
+        <v>1117524.272907598</v>
+      </c>
+      <c r="J156">
+        <v>4840897.340586673</v>
+      </c>
+      <c r="K156">
+        <v>3981861.513443186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>60</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116397.477023501</v>
+      </c>
+      <c r="G157">
+        <v>4841814.909515816</v>
+      </c>
+      <c r="H157">
+        <v>3986328.782351693</v>
+      </c>
+      <c r="I157">
+        <v>1117619.46387279</v>
+      </c>
+      <c r="J157">
+        <v>4840848.688904548</v>
+      </c>
+      <c r="K157">
+        <v>3981438.174074662</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>60</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116397.033040935</v>
+      </c>
+      <c r="G158">
+        <v>4841831.422324139</v>
+      </c>
+      <c r="H158">
+        <v>3986335.831451179</v>
+      </c>
+      <c r="I158">
+        <v>1117716.998827925</v>
+      </c>
+      <c r="J158">
+        <v>4840800.037222423</v>
+      </c>
+      <c r="K158">
+        <v>3980999.686058081</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>60</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116396.604274872</v>
+      </c>
+      <c r="G159">
+        <v>4841847.935132463</v>
+      </c>
+      <c r="H159">
+        <v>3986342.718713302</v>
+      </c>
+      <c r="I159">
+        <v>1117816.9354916</v>
+      </c>
+      <c r="J159">
+        <v>4840751.385540297</v>
+      </c>
+      <c r="K159">
+        <v>3980546.049393443</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>60</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116396.189875663</v>
+      </c>
+      <c r="G160">
+        <v>4841864.447940786</v>
+      </c>
+      <c r="H160">
+        <v>3986349.451402704</v>
+      </c>
+      <c r="I160">
+        <v>1117919.333003678</v>
+      </c>
+      <c r="J160">
+        <v>4840702.73385817</v>
+      </c>
+      <c r="K160">
+        <v>3980077.264080748</v>
       </c>
     </row>
   </sheetData>
